--- a/TableSupp/policy-GovernmentRegulation-res_table.xlsx
+++ b/TableSupp/policy-GovernmentRegulation-res_table.xlsx
@@ -507,11 +507,11 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -525,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -563,16 +563,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>110.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -581,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3532.07</v>
       </c>
       <c r="J3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>357.23</v>
       </c>
       <c r="M3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1400</v>
+        <v>1411.11</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3600</v>
+        <v>3588.89</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,25 +758,25 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3500</v>
+        <v>642.77</v>
       </c>
       <c r="M6">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>78.61</v>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>78.61</v>
       </c>
       <c r="Q6">
         <v>6000</v>
       </c>
       <c r="R6">
-        <v>6000</v>
+        <v>5999.99</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -784,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1400</v>
+        <v>1388.89</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1300</v>
+        <v>1337.45</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1300</v>
+        <v>1265.75</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1015</v>
+        <v>1007.91</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>5000</v>
       </c>
       <c r="R7">
-        <v>5015</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -896,34 +896,34 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1400</v>
+        <v>1388.89</v>
       </c>
       <c r="C9">
-        <v>3600</v>
+        <v>3611.11</v>
       </c>
       <c r="D9">
         <v>4000</v>
       </c>
       <c r="E9">
-        <v>1300</v>
+        <v>1337.45</v>
       </c>
       <c r="F9">
-        <v>3700</v>
+        <v>3699.59</v>
       </c>
       <c r="G9">
         <v>4000</v>
       </c>
       <c r="H9">
-        <v>1300</v>
+        <v>1265.75</v>
       </c>
       <c r="I9">
-        <v>3500</v>
+        <v>3532.07</v>
       </c>
       <c r="J9">
         <v>4000</v>
       </c>
       <c r="K9">
-        <v>1015</v>
+        <v>1007.91</v>
       </c>
       <c r="L9">
         <v>4000</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>78.61</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>78.61</v>
       </c>
       <c r="Q9" t="s">
         <v>21</v>
       </c>
       <c r="R9">
-        <v>36015</v>
+        <v>35999.99000000001</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -952,55 +952,55 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>280</v>
+        <v>277.78</v>
       </c>
       <c r="C10">
-        <v>720</v>
+        <v>722.22</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10">
-        <v>260</v>
+        <v>267.49</v>
       </c>
       <c r="F10">
-        <v>740</v>
+        <v>739.92</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>992.59</v>
       </c>
       <c r="H10">
-        <v>260</v>
+        <v>253.15</v>
       </c>
       <c r="I10">
-        <v>700</v>
+        <v>706.41</v>
       </c>
       <c r="J10">
-        <v>1040</v>
+        <v>1040.44</v>
       </c>
       <c r="K10">
-        <v>203</v>
+        <v>201.58</v>
       </c>
       <c r="L10">
-        <v>828</v>
+        <v>815.72</v>
       </c>
       <c r="M10">
-        <v>828</v>
+        <v>815.72</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20</v>
+        <v>15.72</v>
       </c>
       <c r="P10">
-        <v>20</v>
+        <v>15.72</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
       </c>
       <c r="R10">
-        <v>7899</v>
+        <v>7864.460000000001</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1008,34 +1008,34 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>280</v>
+        <v>277.78</v>
       </c>
       <c r="C11">
-        <v>720</v>
+        <v>722.22</v>
       </c>
       <c r="D11">
         <v>800</v>
       </c>
       <c r="E11">
-        <v>260</v>
+        <v>267.49</v>
       </c>
       <c r="F11">
-        <v>740</v>
+        <v>739.92</v>
       </c>
       <c r="G11">
         <v>800</v>
       </c>
       <c r="H11">
-        <v>260</v>
+        <v>253.15</v>
       </c>
       <c r="I11">
-        <v>700</v>
+        <v>706.41</v>
       </c>
       <c r="J11">
         <v>800</v>
       </c>
       <c r="K11">
-        <v>203</v>
+        <v>201.58</v>
       </c>
       <c r="L11">
         <v>800</v>
@@ -1047,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20</v>
+        <v>15.72</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>15.72</v>
       </c>
       <c r="Q11" t="s">
         <v>21</v>
       </c>
       <c r="R11">
-        <v>7203</v>
+        <v>7199.990000000001</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>3651.85</v>
+        <v>3651.47</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1076,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="F12">
-        <v>3648.41</v>
+        <v>3664.53</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="I12">
-        <v>3568.33</v>
+        <v>3566.28</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="L12">
-        <v>3638.1</v>
+        <v>3641.54</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
@@ -1103,7 +1103,7 @@
         <v>21</v>
       </c>
       <c r="O12">
-        <v>80.08</v>
+        <v>62.96</v>
       </c>
       <c r="P12" t="s">
         <v>21</v>
@@ -1112,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="R12">
-        <v>14586.77</v>
+        <v>14586.78</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1188,7 +1188,7 @@
         <v>21</v>
       </c>
       <c r="F14">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
@@ -1197,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="I14">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1224,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="R14">
-        <v>22.8</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>10772</v>
+        <v>10772.22</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1244,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>9334</v>
+        <v>9371.77</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -1253,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="I15">
-        <v>9126</v>
+        <v>9124.42</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
       <c r="L15">
-        <v>9355.299999999999</v>
+        <v>9348.07</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="O15">
-        <v>208</v>
+        <v>163.52</v>
       </c>
       <c r="P15" t="s">
         <v>21</v>
@@ -1280,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="R15">
-        <v>38795.3</v>
+        <v>38779.99999999999</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="F16">
-        <v>741</v>
+        <v>829.9400000000001</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1309,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="I16">
-        <v>430</v>
+        <v>428.02</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="L16">
-        <v>3.7</v>
+        <v>3.14</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="R16">
-        <v>2524.7</v>
+        <v>2611.1</v>
       </c>
     </row>
   </sheetData>
